--- a/staffing_2013.xlsx
+++ b/staffing_2013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranegri/Desktop/MASTER TESI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501DF232-E5A9-B94F-91C6-F7EE27EDCE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5A714-673E-BC41-B775-E6D2981B03DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1680" windowWidth="27240" windowHeight="15440" xr2:uid="{2515EE90-5361-354F-96BE-38ED21556C83}"/>
+    <workbookView xWindow="180" yWindow="1460" windowWidth="27240" windowHeight="15440" xr2:uid="{2515EE90-5361-354F-96BE-38ED21556C83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,57 +40,9 @@
     <t>AHMC ANAHEIM REGIONAL MEDICAL CENTER</t>
   </si>
   <si>
-    <t>Management &amp; Supervision</t>
-  </si>
-  <si>
-    <t>Technician &amp; Specialist</t>
-  </si>
-  <si>
-    <t>Registered Nurse</t>
-  </si>
-  <si>
-    <t>Licensed Vocational Nurse</t>
-  </si>
-  <si>
-    <t>Aides &amp; Orderlies</t>
-  </si>
-  <si>
-    <t>Clerical &amp; Other Administrative</t>
-  </si>
-  <si>
-    <t>Environmental &amp; Food Services</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Contracted Registry Nursing</t>
-  </si>
-  <si>
-    <t>Contracted Other</t>
-  </si>
-  <si>
-    <t>Daily Cost Centers</t>
-  </si>
-  <si>
-    <t>Ambulatory Cost Centers</t>
-  </si>
-  <si>
-    <t>Ancillary Cost Centers</t>
-  </si>
-  <si>
-    <t>Education Cost Centers</t>
-  </si>
-  <si>
-    <t>General Services Cost Centers</t>
-  </si>
-  <si>
-    <t>Fiscal Services Cost Centers</t>
-  </si>
-  <si>
-    <t>Administrative Services Cost Centers</t>
-  </si>
-  <si>
     <t>ALAMEDA HOSPITAL</t>
   </si>
   <si>
@@ -857,6 +809,54 @@
   </si>
   <si>
     <t>Gross_routine_patient_revenue</t>
+  </si>
+  <si>
+    <t>Management_&amp;_Supervision</t>
+  </si>
+  <si>
+    <t>Technician_&amp;_Specialist</t>
+  </si>
+  <si>
+    <t>Registered_Nurse</t>
+  </si>
+  <si>
+    <t>Licensed_Vocational_Nurse</t>
+  </si>
+  <si>
+    <t>Aides_&amp;_Orderlies</t>
+  </si>
+  <si>
+    <t>Clerical_&amp;_Other_Administrative</t>
+  </si>
+  <si>
+    <t>Environmental_&amp;_Food_Services</t>
+  </si>
+  <si>
+    <t>Contracted_Registry_Nursing</t>
+  </si>
+  <si>
+    <t>Contracted_Other</t>
+  </si>
+  <si>
+    <t>Daily_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Ambulatory_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Ancillary_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Education_Cost_Centers</t>
+  </si>
+  <si>
+    <t>General_Services_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Fiscal_Services_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Administrative_Services_Cost_Centers</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B21D7F7-8431-9147-B787-C9568E334852}">
   <dimension ref="A1:S256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254:B256"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,61 +1240,61 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3265</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B4">
         <v>12155</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B5">
         <v>11974</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B6">
         <v>15377</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>9599</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>7236</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>15402</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>13795</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>7284</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>5014</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>6590</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B14">
         <v>10123</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>14879</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B16">
         <v>11222</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1362</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B18">
         <v>28462</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>15689</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>11330</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>15867</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>7200</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>16193</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>7818</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>9906</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>528</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B27">
         <v>11387</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>4474</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>6994</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B30">
         <v>9868</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>7084</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B32">
         <v>16939</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>6750</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>2036</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B35">
         <v>7839</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>21503</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>4416</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>22114</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <v>10449</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>22614</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B41">
         <v>22198</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>15672</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B43">
         <v>9595</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B44">
         <v>650</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>18089</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <v>19587</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>17756</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>10456</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>6681</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B50">
         <v>7415</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B51">
         <v>13964</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B52">
         <v>11096</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B53">
         <v>3955</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B54">
         <v>22416</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B55">
         <v>8733</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B56">
         <v>16169</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>12658</v>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>21821</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B59">
         <v>12988</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>21735</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B61">
         <v>3524</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B62">
         <v>14078</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B63">
         <v>4834</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B64">
         <v>7506</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B65">
         <v>16007</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B66">
         <v>24814</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <v>12881</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <v>2498</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B69">
         <v>9120</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B70">
         <v>16745</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>2241</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>10147</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B73" s="2">
         <v>8672</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2">
         <v>8366</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2">
         <v>13882</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2">
         <v>474</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>697</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B78">
         <v>21887</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B79">
         <v>31679</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B80">
         <v>26305</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -5968,7 +5968,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="99" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B100">
         <v>7241</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B101">
         <v>7743</v>
@@ -7046,7 +7046,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B102">
         <v>1378</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B103">
         <v>8571</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B104">
         <v>8647</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B105">
         <v>7085</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B106">
         <v>18011</v>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B107">
         <v>22182</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B108">
         <v>18116</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B109">
         <v>1129</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B110">
         <v>13180</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B111">
         <v>17709</v>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B112">
         <v>6101</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B113">
         <v>17996</v>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B114">
         <v>5358</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B115">
         <v>4600</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B116">
         <v>18985</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B117">
         <v>22156</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B118">
         <v>19313</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B119">
         <v>13455</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B120">
         <v>16282</v>
@@ -8167,7 +8167,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B121">
         <v>498</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B122">
         <v>14207</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B123">
         <v>17769</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B124">
         <v>8820</v>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B125">
         <v>6347</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B126">
         <v>12021</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B127">
         <v>22746</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B128">
         <v>12870</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B129">
         <v>16765</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B130">
         <v>12018</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B131">
         <v>17117</v>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B132">
         <v>7217</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B133">
         <v>12488</v>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B134">
         <v>4866</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B135">
         <v>13196</v>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B136">
         <v>617</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B137">
         <v>9286</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B138">
         <v>19973</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B139">
         <v>1129</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B140">
         <v>16467</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B141">
         <v>34626</v>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B142">
         <v>14158</v>
@@ -9465,7 +9465,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B143">
         <v>17350</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B144">
         <v>18781</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B145">
         <v>1632</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B146">
         <v>2214</v>
@@ -9701,7 +9701,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B147">
         <v>19642</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B148">
         <v>14149</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B149">
         <v>11101</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B150">
         <v>9277</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B151">
         <v>6504</v>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B152">
         <v>12748</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B153">
         <v>18909</v>
@@ -10114,7 +10114,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B154">
         <v>10331</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B155">
         <v>16920</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B156">
         <v>5141</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B157">
         <v>5273</v>
@@ -10350,7 +10350,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B158">
         <v>20029</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B159">
         <v>18702</v>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B160">
         <v>19298</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B161">
         <v>8347</v>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B162">
         <v>13416</v>
@@ -10645,7 +10645,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B163">
         <v>20665</v>
@@ -10704,7 +10704,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B164">
         <v>17560</v>
@@ -10763,7 +10763,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B165">
         <v>19192</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B166">
         <v>10269</v>
@@ -10881,7 +10881,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B167">
         <v>10745</v>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B168">
         <v>11257</v>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B169">
         <v>29851</v>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B170">
         <v>12418</v>
@@ -11117,7 +11117,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B171">
         <v>6394</v>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B172">
         <v>18971</v>
@@ -11235,7 +11235,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B173">
         <v>9444</v>
@@ -11294,7 +11294,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B174">
         <v>14607</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B175">
         <v>14159</v>
@@ -11412,7 +11412,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B176">
         <v>13445</v>
@@ -11471,7 +11471,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B177">
         <v>13268</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B178">
         <v>12543</v>
@@ -11589,7 +11589,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B179">
         <v>11115</v>
@@ -11648,7 +11648,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B180">
         <v>12437</v>
@@ -11707,7 +11707,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B181">
         <v>7819</v>
@@ -11766,7 +11766,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B182">
         <v>13407</v>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B183">
         <v>14083</v>
@@ -11884,7 +11884,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B184">
         <v>12180</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B185">
         <v>1382</v>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B186">
         <v>22146</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B187">
         <v>11279</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B188">
         <v>14166</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B189">
         <v>10771</v>
@@ -12238,7 +12238,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B190">
         <v>21294</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B191">
         <v>7562</v>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B192">
         <v>14577</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B193">
         <v>19317</v>
@@ -12474,7 +12474,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B194">
         <v>14451</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B195">
         <v>1033</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B196">
         <v>27422</v>
@@ -12651,7 +12651,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B197">
         <v>11650</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B198">
         <v>10942</v>
@@ -12718,7 +12718,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B199">
         <v>4289</v>
@@ -12777,7 +12777,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B200">
         <v>15787</v>
@@ -12836,7 +12836,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B201">
         <v>18535</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B202">
         <v>8427</v>
@@ -12954,7 +12954,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B203">
         <v>12018</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B204">
         <v>21035</v>
@@ -13072,7 +13072,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B205">
         <v>12190</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B206">
         <v>6913</v>
@@ -13190,7 +13190,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="B207">
         <v>7434</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B208">
         <v>394</v>
@@ -13308,7 +13308,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B209">
         <v>9284</v>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B210">
         <v>10717</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B211">
         <v>15889</v>
@@ -13485,7 +13485,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B212">
         <v>13501</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B213">
         <v>10321</v>
@@ -13603,7 +13603,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B214">
         <v>17264</v>
@@ -13662,7 +13662,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B215">
         <v>22536</v>
@@ -13721,7 +13721,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B216">
         <v>12540</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B217">
         <v>10576</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B218">
         <v>13109</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B219">
         <v>13718</v>
@@ -13957,7 +13957,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B220">
         <v>2803</v>
@@ -14016,7 +14016,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B221">
         <v>12274</v>
@@ -14075,7 +14075,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B222">
         <v>19056</v>
@@ -14134,7 +14134,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B223">
         <v>18045</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B224">
         <v>14566</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B225">
         <v>36608</v>
@@ -14311,7 +14311,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B226">
         <v>330</v>
@@ -14370,7 +14370,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B227">
         <v>13283</v>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B228">
         <v>14387</v>
@@ -14488,7 +14488,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B229">
         <v>10024</v>
@@ -14547,7 +14547,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B230">
         <v>14225</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B231">
         <v>15449</v>
@@ -14665,7 +14665,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B232">
         <v>10520</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B233">
         <v>12035</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B234">
         <v>16786</v>
@@ -14842,7 +14842,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B235">
         <v>15321</v>
@@ -14901,7 +14901,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B236">
         <v>3796</v>
@@ -14960,7 +14960,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B237">
         <v>821</v>
@@ -15019,7 +15019,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B238">
         <v>16911</v>
@@ -15078,7 +15078,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B239">
         <v>12180</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B240">
         <v>1011</v>
@@ -15196,7 +15196,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B241">
         <v>21352</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B242">
         <v>27137</v>
@@ -15314,7 +15314,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B243">
         <v>10753</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B244">
         <v>10812</v>
@@ -15432,7 +15432,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B245">
         <v>25597</v>
@@ -15491,7 +15491,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B246">
         <v>22030</v>
@@ -15550,7 +15550,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B247">
         <v>9304</v>
@@ -15609,7 +15609,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B248">
         <v>16424</v>
@@ -15668,7 +15668,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B249">
         <v>10983</v>
@@ -15727,7 +15727,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B250">
         <v>27694</v>
@@ -15786,7 +15786,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B251">
         <v>24464</v>
@@ -15845,7 +15845,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B252">
         <v>9936</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B253">
         <v>22198</v>
@@ -15963,7 +15963,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B254">
         <v>15032</v>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B255">
         <v>13745</v>
@@ -16081,7 +16081,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B256">
         <v>12464</v>

--- a/staffing_2013.xlsx
+++ b/staffing_2013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranegri/Desktop/MASTER TESI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5A714-673E-BC41-B775-E6D2981B03DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA8B173-201C-A841-931F-B9A86A4EFEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1460" windowWidth="27240" windowHeight="15440" xr2:uid="{2515EE90-5361-354F-96BE-38ED21556C83}"/>
+    <workbookView xWindow="160" yWindow="1460" windowWidth="27240" windowHeight="15440" xr2:uid="{2515EE90-5361-354F-96BE-38ED21556C83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -811,27 +811,12 @@
     <t>Gross_routine_patient_revenue</t>
   </si>
   <si>
-    <t>Management_&amp;_Supervision</t>
-  </si>
-  <si>
-    <t>Technician_&amp;_Specialist</t>
-  </si>
-  <si>
     <t>Registered_Nurse</t>
   </si>
   <si>
     <t>Licensed_Vocational_Nurse</t>
   </si>
   <si>
-    <t>Aides_&amp;_Orderlies</t>
-  </si>
-  <si>
-    <t>Clerical_&amp;_Other_Administrative</t>
-  </si>
-  <si>
-    <t>Environmental_&amp;_Food_Services</t>
-  </si>
-  <si>
     <t>Contracted_Registry_Nursing</t>
   </si>
   <si>
@@ -857,6 +842,21 @@
   </si>
   <si>
     <t>Administrative_Services_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Management_and_Supervision</t>
+  </si>
+  <si>
+    <t>Technician_and_Specialist</t>
+  </si>
+  <si>
+    <t>Aides_and_Orderlies</t>
+  </si>
+  <si>
+    <t>Clerical_and_Other_Administrative</t>
+  </si>
+  <si>
+    <t>Environmental_and_Food_Services</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B21D7F7-8431-9147-B787-C9568E334852}">
   <dimension ref="A1:S256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1246,55 +1246,55 @@
         <v>257</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
